--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\barcodeUtils\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2180A7-95E7-410F-8155-FCB8B60ABC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB526C8-5C62-4E6C-A2E5-DB5111A06553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SessionBackup/LastSessionItems.xlsx
+++ b/SessionBackup/LastSessionItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\barcodeUtils\SessionBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB526C8-5C62-4E6C-A2E5-DB5111A06553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16B608-0CD0-4052-BEA0-F5BA5A07DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
